--- a/1 Fundamentos de Analytics - Parte C Inferência e Metodologia de Projetos/5) Como trabalhar com amostras de dados/altura_suecia.xlsx
+++ b/1 Fundamentos de Analytics - Parte C Inferência e Metodologia de Projetos/5) Como trabalhar com amostras de dados/altura_suecia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joao_\Desktop\Modal_DS\Curso-Data-Analytics---Preditiva.ai\1 Fundamentos de Analytics - Parte C Inferência e Metodologia de Projetos\5) Como trabalhar com amostras de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8054DCBD-A50F-4394-8D59-3712B36BBF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6CAC87-1C19-47D8-A0D1-A321152F3B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30A9F6B8-7562-4205-85F8-86FF300F32D4}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Planilha1!$B$5</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Planilha1!$B$6:$B$55</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha1!$B$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha1!$B$6:$B$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Altura</t>
   </si>
@@ -105,6 +103,27 @@
   </si>
   <si>
     <t>Um exemplo que pode acontecer é que a média brasileira pode ser diferente da média sueca, mas em termos de distribuição uma grande parte dos brasileiros tem altura similar dos suecos</t>
+  </si>
+  <si>
+    <t>a) A Margem de Erro para os dois Intervalos de Confiança calculados no exercício 2.</t>
+  </si>
+  <si>
+    <t>b) O número de pessoas que devem ter sua altura medida para que a Margem de Erro seja inferior a 1 cm, considerando os coeficientes de confiança de 90% e 99%.</t>
+  </si>
+  <si>
+    <t>Forma 1</t>
+  </si>
+  <si>
+    <t>Forma 2</t>
+  </si>
+  <si>
+    <t>Margem de erro</t>
+  </si>
+  <si>
+    <t>Variância</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -246,10 +265,10 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,7 +292,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -311,7 +330,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2BF33263-0D25-4C0A-8A0E-EE67E52D1AA3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Altura</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1028,6 +1047,50 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350693</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>144880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107F7C74-C943-E3B9-7C30-E08B7924903C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8717280" y="9685020"/>
+          <a:ext cx="1996613" cy="1150720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1330,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F118FC6-501E-481E-935C-4559C208413D}">
   <dimension ref="A1:P1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:P35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,20 +1637,20 @@
       <c r="B19" s="7">
         <v>1.4301110644203923</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1596,18 +1659,18 @@
       <c r="B20" s="7">
         <v>2.0120006580342404</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -1659,15 +1722,15 @@
       <c r="B26" s="7">
         <v>1.6417086463466573</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1676,13 +1739,13 @@
       <c r="B27" s="7">
         <v>1.7080023183395543</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1691,13 +1754,13 @@
       <c r="B28" s="7">
         <v>1.8114353110876744</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -1706,13 +1769,13 @@
       <c r="B29" s="7">
         <v>1.8389379802432206</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -1729,15 +1792,15 @@
       <c r="B31" s="7">
         <v>1.3818617317478581</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -1746,13 +1809,13 @@
       <c r="B32" s="7">
         <v>1.6553267041789794</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
@@ -1761,13 +1824,13 @@
       <c r="B33" s="7">
         <v>2.112038825206652</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
@@ -1776,13 +1839,13 @@
       <c r="B34" s="7">
         <v>1.6476246899796556</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
@@ -1791,13 +1854,13 @@
       <c r="B35" s="7">
         <v>2.078215398805324</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -1814,15 +1877,15 @@
       <c r="B37" s="7">
         <v>1.7448661913352359</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
@@ -1831,13 +1894,13 @@
       <c r="B38" s="7">
         <v>1.8631574288405464</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
@@ -1846,13 +1909,13 @@
       <c r="B39" s="7">
         <v>2.1312574747442312</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
@@ -1861,13 +1924,13 @@
       <c r="B40" s="7">
         <v>1.4537766974580073</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -1900,6 +1963,9 @@
       <c r="B44" s="7">
         <v>1.5485880339708353</v>
       </c>
+      <c r="E44" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
@@ -1916,6 +1982,9 @@
       <c r="B46" s="7">
         <v>1.4751848835141206</v>
       </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
@@ -1924,6 +1993,13 @@
       <c r="B47" s="7">
         <v>2.0948105231143996</v>
       </c>
+      <c r="E47" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F47" s="1">
+        <f>F8-F14</f>
+        <v>6.5759781053005062E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
@@ -1933,23 +2009,33 @@
         <v>1.5884243468815928</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="7">
         <v>2.0824578653263566</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>45</v>
       </c>
       <c r="B50" s="7">
         <v>1.854018822402864</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E50" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="F50" s="1">
+        <f>J15-F8</f>
+        <v>0.10511643624698164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>46</v>
       </c>
@@ -1957,15 +2043,18 @@
         <v>1.9794435850228189</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>47</v>
       </c>
       <c r="B52" s="7">
         <v>1.7604630186125483</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E52" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>48</v>
       </c>
@@ -1973,55 +2062,107 @@
         <v>1.9832880206997459</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>49</v>
       </c>
       <c r="B54" s="7">
         <v>1.9606622103904401</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>50</v>
       </c>
       <c r="B55" s="9">
         <v>1.6483724437557292</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <f>F9</f>
+        <v>7.6923181659886528E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="16">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60">
+        <f>_xlfn.NORM.S.INV((1-F59)/2)</f>
+        <v>-1.6448536269514726</v>
+      </c>
+      <c r="J60">
+        <f>_xlfn.NORM.S.INV((1-J59)/2)</f>
+        <v>-2.5758293035488999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62">
+        <f>$F$55*(F60*F60)/($F$54*$F$54)</f>
+        <v>2081.1901060809842</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <f>$F$55*(J60*J60)/($F$54*$F$54)</f>
+        <v>5103.7735653491818</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
     </row>
